--- a/gutter-sr.xlsx
+++ b/gutter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="30300" windowHeight="20440" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="19240" yWindow="460" windowWidth="14320" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
   <si>
     <t>Dag1</t>
   </si>
@@ -265,16 +265,19 @@
     <t>Tour de Synnfjell Sammenlagt - Menn</t>
   </si>
   <si>
-    <t>Lars Norheim Christiansen</t>
+    <t>Christiansen, Lars Norheim</t>
   </si>
   <si>
-    <t>Erik Prebensen</t>
+    <t>Johansen, Kristian</t>
   </si>
   <si>
-    <t>Erling Moseby</t>
+    <t>Moseby, Erling</t>
   </si>
   <si>
-    <t>Kristian Johansen</t>
+    <t>Prebensen, Erik</t>
+  </si>
+  <si>
+    <t>Jakobsen, Knut Einar</t>
   </si>
 </sst>
 </file>
@@ -877,8 +880,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,33 +1148,35 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1179,11 +1184,11 @@
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12908,7 +12913,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Lars Norheim Christiansen</v>
+        <v>Christiansen, Lars Norheim</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -12978,7 +12983,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
+        <v>Jakobsen, Knut Einar</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
@@ -12990,11 +12995,11 @@
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
@@ -13006,11 +13011,11 @@
       </c>
       <c r="H8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
@@ -13022,11 +13027,11 @@
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
@@ -13038,11 +13043,11 @@
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -19838,7 +19843,7 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Erik Prebensen</v>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -26768,7 +26773,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristian Johansen</v>
+        <v>Prebensen, Erik</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26838,7 +26843,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Erling Moseby</v>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -33724,7 +33729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33840,7 +33845,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Lars Norheim Christiansen</v>
+        <v>Christiansen, Lars Norheim</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -33888,15 +33893,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v/>
+        <v>Jakobsen, Knut Einar</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!Q8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -36201,7 +36206,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Erik Prebensen</v>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
@@ -37573,7 +37578,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Kristian Johansen</v>
+        <v>Prebensen, Erik</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37587,7 +37592,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Erling Moseby</v>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -48457,7 +48462,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Lars Norheim Christiansen</v>
+        <v>Christiansen, Lars Norheim</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -48481,7 +48486,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Erik Prebensen</v>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
@@ -48505,7 +48510,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Erling Moseby</v>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
@@ -48529,7 +48534,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristian Johansen</v>
+        <v>Prebensen, Erik</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
@@ -48553,15 +48558,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Jakobsen, Knut Einar</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -50916,7 +50921,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Lars Norheim Christiansen</v>
+        <v>Christiansen, Lars Norheim</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -50940,7 +50945,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Erik Prebensen</v>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
@@ -50964,7 +50969,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Erling Moseby</v>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -50988,7 +50993,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristian Johansen</v>
+        <v>Prebensen, Erik</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -51012,15 +51017,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Jakobsen, Knut Einar</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -53377,7 +53382,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Lars Norheim Christiansen</v>
+        <v>Christiansen, Lars Norheim</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -53401,7 +53406,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Erik Prebensen</v>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
@@ -53425,7 +53430,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Erling Moseby</v>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53449,7 +53454,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristian Johansen</v>
+        <v>Prebensen, Erik</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -53473,15 +53478,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Jakobsen, Knut Einar</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>

--- a/gutter-sr.xlsx
+++ b/gutter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="460" windowWidth="14320" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="18960" windowHeight="20120" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>Dag1</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Jakobsen, Knut Einar</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,14 +978,16 @@
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1002,9 +1007,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>9.2013888888888892E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1019,14 +1024,16 @@
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>9.8495370370370369E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -1046,9 +1053,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>9.8495370370370369E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1063,14 +1070,16 @@
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>7.8703703703703713E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -1090,9 +1099,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.8703703703703713E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1107,7 +1116,9 @@
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1136,7 +1147,7 @@
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1151,7 +1162,9 @@
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1180,7 +1193,7 @@
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -12915,21 +12928,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Christiansen, Lars Norheim</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12963,13 +12976,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>9.2013888888888892E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -12987,11 +13000,11 @@
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C8" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13035,11 +13048,11 @@
       </c>
       <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O8" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19845,21 +19858,21 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Johansen, Kristian</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>9.8495370370370369E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>9.8495370370370369E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19893,13 +19906,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27" t="str">
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>9.8495370370370369E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>9.8495370370370369E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26777,11 +26790,11 @@
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C205" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26825,11 +26838,11 @@
       </c>
       <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O205" s="28" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26845,21 +26858,21 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Moseby, Erling</v>
       </c>
-      <c r="B206" s="19" t="str">
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>7.8703703703703713E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>7.8703703703703713E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26893,13 +26906,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27" t="str">
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>7.8703703703703713E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>7.8703703703703713E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -48466,11 +48479,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>9.2013888888888892E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48490,11 +48503,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>9.8495370370370369E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48514,11 +48527,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>7.8703703703703713E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48536,9 +48549,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Prebensen, Erik</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="36" t="str">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
@@ -48560,9 +48573,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Jakobsen, Knut Einar</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>

--- a/gutter-sr.xlsx
+++ b/gutter-sr.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>Dag1</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>DNS</t>
+  </si>
+  <si>
+    <t>Måbø, Ulrik</t>
+  </si>
+  <si>
+    <t>Lysen, Hans</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,14 +995,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.1377314814814809E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -1009,7 +1017,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>9.2013888888888892E-3</v>
+        <v>4.05787037037037E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1035,14 +1043,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>3.5358796296296298E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -1055,7 +1065,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>9.8495370370370369E-3</v>
+        <v>4.5208333333333336E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1081,14 +1091,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>2.6087962962962966E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -1101,7 +1113,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>7.8703703703703713E-3</v>
+        <v>3.395833333333334E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1127,7 +1139,9 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1173,14 +1187,16 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="25">
+        <v>3.2141203703703707E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
@@ -1205,87 +1221,99 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2.8298611111111111E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E10" s="25">
+        <v>3.9918981481481479E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12944,21 +12972,21 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="19">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>3.1377314814814809E-2</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>3.1377314814814809E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I7" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -12978,11 +13006,11 @@
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>9.2013888888888892E-3</v>
+        <v>4.05787037037037E-2</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>9.2013888888888892E-3</v>
+        <v>4.05787037037037E-2</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13014,21 +13042,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="19">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+        <v>3.2141203703703707E-2</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H8" s="23" t="str">
+        <v>3.2141203703703707E-2</v>
+      </c>
+      <c r="H8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I8" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
@@ -13066,39 +13094,39 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
+        <v>Måbø, Ulrik</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="F9" s="19">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="21" t="str">
+        <v>2.8298611111111111E-2</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
+        <v>2.8298611111111111E-2</v>
+      </c>
+      <c r="H9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="I9" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13110,65 +13138,65 @@
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N9" s="27" t="str">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O9" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q9" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
+        <v>Lysen, Hans</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="F10" s="19">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="21" t="str">
+        <v>3.9918981481481479E-2</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" s="23" t="str">
+        <v>3.9918981481481479E-2</v>
+      </c>
+      <c r="H10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="I10" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
@@ -13180,27 +13208,27 @@
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N10" s="27" t="str">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O10" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q10" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -19874,21 +19902,21 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="F106" s="19" t="str">
+      <c r="F106" s="19">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
-      </c>
-      <c r="G106" s="21" t="str">
+        <v>3.5358796296296298E-2</v>
+      </c>
+      <c r="G106" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H106" s="23" t="str">
+        <v>3.5358796296296298E-2</v>
+      </c>
+      <c r="H106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I106" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="I106" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19908,11 +19936,11 @@
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>9.8495370370370369E-3</v>
+        <v>4.5208333333333336E-2</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>9.8495370370370369E-3</v>
+        <v>4.5208333333333336E-2</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26806,11 +26834,11 @@
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G205" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26874,21 +26902,21 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="F206" s="19" t="str">
+      <c r="F206" s="19">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
-      </c>
-      <c r="G206" s="21" t="str">
+        <v>2.6087962962962966E-2</v>
+      </c>
+      <c r="G206" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H206" s="23" t="str">
+        <v>2.6087962962962966E-2</v>
+      </c>
+      <c r="H206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I206" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I206" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26908,11 +26936,11 @@
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>7.8703703703703713E-3</v>
+        <v>3.395833333333334E-2</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>7.8703703703703713E-3</v>
+        <v>3.395833333333334E-2</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -33930,15 +33958,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v/>
+        <v>Måbø, Ulrik</v>
       </c>
       <c r="B9" s="41" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!Q9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -33954,15 +33982,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v/>
+        <v>Lysen, Hans</v>
       </c>
       <c r="B10" s="41" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!Q10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -48595,15 +48623,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
+        <v>Måbø, Ulrik</v>
       </c>
       <c r="B9" s="36" t="str">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -48619,15 +48647,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
+        <v>Lysen, Hans</v>
       </c>
       <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -50938,11 +50966,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.1377314814814809E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -50962,11 +50990,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.5358796296296298E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -50986,11 +51014,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.6087962962962966E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -51008,9 +51036,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Prebensen, Erik</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="25" t="str">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
@@ -51034,11 +51062,11 @@
       </c>
       <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>3.2141203703703707E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -51054,15 +51082,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Måbø, Ulrik</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>2.8298611111111111E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51078,15 +51106,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Lysen, Hans</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>3.9918981481481479E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -53515,15 +53543,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Måbø, Ulrik</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -53539,15 +53567,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Lysen, Hans</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>

--- a/gutter-sr.xlsx
+++ b/gutter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="18960" windowHeight="20120" tabRatio="991"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="32940" windowHeight="20080" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
   <si>
     <t>Dag1</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -1015,9 +1017,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.05787037037037E-2</v>
+        <v>-</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1150,7 +1152,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1198,7 +1202,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1246,7 +1252,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1294,7 +1302,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -12990,11 +13000,11 @@
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K7" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13004,13 +13014,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>4.05787037037037E-2</v>
-      </c>
-      <c r="O7" s="28">
+        <v>-</v>
+      </c>
+      <c r="O7" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>4.05787037037037E-2</v>
+        <v>-</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13060,11 +13070,11 @@
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13130,11 +13140,11 @@
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K9" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13200,11 +13210,11 @@
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K10" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26850,11 +26860,11 @@
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K205" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -53425,9 +53435,9 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Christiansen, Lars Norheim</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
@@ -53497,9 +53507,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Prebensen, Erik</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="36" t="str">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
@@ -53521,9 +53531,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Jakobsen, Knut Einar</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
@@ -53545,9 +53555,9 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Måbø, Ulrik</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="36" t="str">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
@@ -53569,9 +53579,9 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Lysen, Hans</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>

--- a/gutter-sr.xlsx
+++ b/gutter-sr.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="32940" windowHeight="20080" tabRatio="991"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="32940" windowHeight="20080" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -307,6 +307,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -889,8 +894,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,26 +1061,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>7.7175925925925926E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>4.5208333333333336E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>0.12238425925925926</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1104,26 +1111,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>6.0543981481481483E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>3.395833333333334E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>9.4502314814814831E-2</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -19928,37 +19937,37 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="J106" s="19" t="str">
+      <c r="J106" s="19">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
-      </c>
-      <c r="K106" s="29" t="str">
+        <v>7.7175925925925926E-2</v>
+      </c>
+      <c r="K106" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L106" s="23" t="str">
+        <v>7.7175925925925926E-2</v>
+      </c>
+      <c r="L106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M106" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M106" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>4.5208333333333336E-2</v>
+        <v>0.12238425925925926</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>4.5208333333333336E-2</v>
-      </c>
-      <c r="P106" s="23" t="str">
+        <v>0.12238425925925926</v>
+      </c>
+      <c r="P106" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q106" s="23" t="str">
+        <v>185</v>
+      </c>
+      <c r="Q106" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -26928,37 +26937,37 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J206" s="19" t="str">
+      <c r="J206" s="19">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
-      </c>
-      <c r="K206" s="29" t="str">
+        <v>6.0543981481481483E-2</v>
+      </c>
+      <c r="K206" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L206" s="23" t="str">
+        <v>6.0543981481481483E-2</v>
+      </c>
+      <c r="L206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M206" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M206" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>3.395833333333334E-2</v>
+        <v>9.4502314814814831E-2</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>3.395833333333334E-2</v>
-      </c>
-      <c r="P206" s="23" t="str">
+        <v>9.4502314814814831E-2</v>
+      </c>
+      <c r="P206" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q206" s="23" t="str">
+        <v>300</v>
+      </c>
+      <c r="Q206" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -33778,10 +33787,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33845,7 +33855,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v/>
@@ -33869,7 +33879,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v/>
@@ -33893,7 +33903,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
         <v>Christiansen, Lars Norheim</v>
@@ -33917,7 +33927,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
         <v/>
@@ -33941,7 +33951,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v>Jakobsen, Knut Einar</v>
@@ -33965,7 +33975,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
         <v>Måbø, Ulrik</v>
@@ -33989,7 +33999,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
         <v>Lysen, Hans</v>
@@ -34013,7 +34023,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
         <v/>
@@ -34037,7 +34047,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
         <v/>
@@ -34061,7 +34071,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v/>
@@ -34085,7 +34095,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
         <v/>
@@ -34109,7 +34119,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
         <v/>
@@ -34133,7 +34143,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v/>
@@ -34157,7 +34167,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v/>
@@ -34181,7 +34191,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v/>
@@ -34205,7 +34215,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v/>
@@ -34229,7 +34239,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34253,7 +34263,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34277,7 +34287,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34301,7 +34311,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34325,7 +34335,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34349,7 +34359,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34373,7 +34383,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34397,7 +34407,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34421,7 +34431,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34445,7 +34455,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34469,7 +34479,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34493,7 +34503,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34517,7 +34527,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34541,7 +34551,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34565,7 +34575,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34589,7 +34599,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34613,7 +34623,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34637,7 +34647,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34661,7 +34671,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34685,7 +34695,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34709,7 +34719,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34733,7 +34743,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34757,7 +34767,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34781,7 +34791,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34805,7 +34815,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34829,7 +34839,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34853,7 +34863,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34877,7 +34887,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -34901,7 +34911,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -34925,7 +34935,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -34949,7 +34959,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -34973,7 +34983,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -34997,7 +35007,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35021,7 +35031,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35045,7 +35055,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35069,7 +35079,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35093,7 +35103,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35117,7 +35127,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35141,7 +35151,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35165,7 +35175,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35189,7 +35199,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35213,7 +35223,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35237,7 +35247,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35261,7 +35271,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35285,7 +35295,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35309,7 +35319,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35333,7 +35343,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35357,7 +35367,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35381,7 +35391,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35405,7 +35415,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35429,7 +35439,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35453,7 +35463,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35477,7 +35487,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35501,7 +35511,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35525,7 +35535,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35549,7 +35559,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35573,7 +35583,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35597,7 +35607,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35621,7 +35631,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35645,7 +35655,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35669,7 +35679,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35693,7 +35703,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35717,7 +35727,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35741,7 +35751,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35765,7 +35775,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35789,7 +35799,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35813,7 +35823,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35837,7 +35847,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35861,7 +35871,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -35885,7 +35895,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -35909,7 +35919,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -35933,7 +35943,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -35957,7 +35967,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -35981,7 +35991,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36005,7 +36015,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36029,7 +36039,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36053,7 +36063,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36077,7 +36087,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36101,7 +36111,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36125,7 +36135,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36149,7 +36159,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36173,7 +36183,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36197,7 +36207,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36212,7 +36222,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36226,7 +36236,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v/>
@@ -36240,7 +36250,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
         <v/>
@@ -36256,19 +36266,19 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Johansen, Kristian</v>
-      </c>
-      <c r="B106" s="41" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v>-</v>
-      </c>
-      <c r="C106" s="37" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
+        <v>Moseby, Erling</v>
+      </c>
+      <c r="B106" s="41">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
+        <v>300</v>
+      </c>
+      <c r="C106" s="37">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
         <v/>
@@ -36282,7 +36292,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v/>
@@ -36296,7 +36306,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
         <v/>
@@ -36310,7 +36320,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
         <v/>
@@ -36324,7 +36334,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
         <v/>
@@ -36338,7 +36348,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v/>
@@ -36352,7 +36362,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v/>
@@ -36366,7 +36376,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36380,7 +36390,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36394,7 +36404,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36408,7 +36418,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36422,7 +36432,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36436,7 +36446,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36450,7 +36460,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36464,7 +36474,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36478,7 +36488,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36492,7 +36502,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36506,7 +36516,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36520,7 +36530,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36534,7 +36544,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36548,7 +36558,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36562,7 +36572,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36576,7 +36586,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36590,7 +36600,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36604,7 +36614,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36618,7 +36628,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36632,7 +36642,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36646,7 +36656,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36660,7 +36670,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36674,7 +36684,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36688,7 +36698,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36702,7 +36712,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36716,7 +36726,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36730,7 +36740,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36744,7 +36754,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36758,7 +36768,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36772,7 +36782,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36786,7 +36796,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36800,7 +36810,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36814,7 +36824,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36828,7 +36838,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36842,7 +36852,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36856,7 +36866,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36870,7 +36880,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -36884,7 +36894,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -36898,7 +36908,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -36912,7 +36922,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -36926,7 +36936,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -36940,7 +36950,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -36954,7 +36964,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -36968,7 +36978,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -36982,7 +36992,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -36996,7 +37006,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37010,7 +37020,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37024,7 +37034,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37038,7 +37048,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37052,7 +37062,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37066,7 +37076,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37080,7 +37090,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37094,7 +37104,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37108,7 +37118,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37122,7 +37132,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37136,7 +37146,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37150,7 +37160,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37164,7 +37174,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37178,7 +37188,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37192,7 +37202,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37206,7 +37216,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37220,7 +37230,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37234,7 +37244,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37248,7 +37258,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37262,7 +37272,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37276,7 +37286,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37290,7 +37300,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37304,7 +37314,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37318,7 +37328,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37332,7 +37342,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37346,7 +37356,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37360,7 +37370,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37374,7 +37384,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37388,7 +37398,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37402,7 +37412,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37416,7 +37426,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37430,7 +37440,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37444,7 +37454,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37458,7 +37468,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37472,7 +37482,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37486,7 +37496,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37500,7 +37510,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37514,7 +37524,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37528,7 +37538,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37542,7 +37552,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37556,7 +37566,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37570,7 +37580,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37584,7 +37594,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37598,7 +37608,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37612,7 +37622,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37626,7 +37636,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v>Prebensen, Erik</v>
@@ -37642,19 +37652,19 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Moseby, Erling</v>
-      </c>
-      <c r="B205" s="41" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v>-</v>
-      </c>
-      <c r="C205" s="37" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
+        <v>Johansen, Kristian</v>
+      </c>
+      <c r="B205" s="41">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
+        <v>185</v>
+      </c>
+      <c r="C205" s="37">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v/>
@@ -37668,7 +37678,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v/>
@@ -37682,7 +37692,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v/>
@@ -37696,7 +37706,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v/>
@@ -37710,7 +37720,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v/>
@@ -37724,7 +37734,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v/>
@@ -37738,7 +37748,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v/>
@@ -37752,7 +37762,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37766,7 +37776,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37780,7 +37790,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37794,7 +37804,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37808,7 +37818,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37822,7 +37832,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37836,7 +37846,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37850,7 +37860,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37864,7 +37874,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -37878,7 +37888,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -37892,7 +37902,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -37906,7 +37916,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -37920,7 +37930,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -37934,7 +37944,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -37948,7 +37958,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -37962,7 +37972,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -37976,7 +37986,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -37990,7 +38000,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38004,7 +38014,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38018,7 +38028,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38032,7 +38042,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38046,7 +38056,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38060,7 +38070,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38074,7 +38084,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38088,7 +38098,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38102,7 +38112,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38116,7 +38126,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38130,7 +38140,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38144,7 +38154,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38158,7 +38168,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38172,7 +38182,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38186,7 +38196,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38200,7 +38210,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38214,7 +38224,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38228,7 +38238,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38242,7 +38252,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38256,7 +38266,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38270,7 +38280,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38284,7 +38294,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38298,7 +38308,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38312,7 +38322,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38326,7 +38336,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38340,7 +38350,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38354,7 +38364,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38368,7 +38378,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38382,7 +38392,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38396,7 +38406,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38410,7 +38420,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38424,7 +38434,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38438,7 +38448,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38452,7 +38462,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38466,7 +38476,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38480,7 +38490,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38494,7 +38504,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38508,7 +38518,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38522,7 +38532,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38536,7 +38546,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38550,7 +38560,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38564,7 +38574,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38578,7 +38588,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38592,7 +38602,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38606,7 +38616,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38620,7 +38630,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38634,7 +38644,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38648,7 +38658,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38662,7 +38672,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38676,7 +38686,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38690,7 +38700,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38704,7 +38714,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38718,7 +38728,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38732,7 +38742,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38746,7 +38756,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38760,7 +38770,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38774,7 +38784,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38788,7 +38798,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38802,7 +38812,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38816,7 +38826,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38830,7 +38840,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38844,7 +38854,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38858,7 +38868,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38872,7 +38882,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -38886,7 +38896,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -38900,7 +38910,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -38914,7 +38924,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -38928,7 +38938,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -38942,7 +38952,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -38956,7 +38966,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -38970,7 +38980,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -38984,7 +38994,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -38998,7 +39008,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39012,7 +39022,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
         <v/>
@@ -39027,14 +39037,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
-    <sortState ref="A4:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A106:C205">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -53362,11 +53379,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53430,7 +53447,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Christiansen, Lars Norheim</v>
@@ -53456,16 +53473,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Johansen, Kristian</v>
+        <f>IF('K1'!A6="", "",'K1'!A6)</f>
+        <v>Moseby, Erling</v>
       </c>
       <c r="B5" s="36">
-        <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
-        <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v>-</v>
+        <f>IF('K1'!A6="", "",'K1'!H6)</f>
+        <v>6.0543981481481483E-2</v>
+      </c>
+      <c r="C5" s="37">
+        <f>IF('K1'!A6="", "",'K1'!I6)</f>
+        <v>1</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53480,16 +53497,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Moseby, Erling</v>
+        <f>IF('K1'!A5="", "",'K1'!A5)</f>
+        <v>Johansen, Kristian</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
-        <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v>-</v>
+        <f>IF('K1'!A5="", "",'K1'!H5)</f>
+        <v>7.7175925925925926E-2</v>
+      </c>
+      <c r="C6" s="37">
+        <f>IF('K1'!A5="", "",'K1'!I5)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53502,7 +53519,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Prebensen, Erik</v>
@@ -53526,7 +53543,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Jakobsen, Knut Einar</v>
@@ -53550,7 +53567,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Måbø, Ulrik</v>
@@ -53574,7 +53591,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Lysen, Hans</v>
@@ -53598,7 +53615,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v/>
@@ -53622,7 +53639,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v/>
@@ -53646,7 +53663,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v/>
@@ -53670,7 +53687,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v/>
@@ -53694,7 +53711,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v/>
@@ -53718,7 +53735,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v/>
@@ -53742,7 +53759,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v/>
@@ -53766,7 +53783,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v/>
@@ -53790,7 +53807,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v/>
@@ -53814,7 +53831,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -53838,7 +53855,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -53862,7 +53879,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -53886,7 +53903,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -53910,7 +53927,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -53934,7 +53951,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -53958,7 +53975,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -53982,7 +53999,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54006,7 +54023,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54030,7 +54047,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54054,7 +54071,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54078,7 +54095,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54102,7 +54119,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54126,7 +54143,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54150,7 +54167,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54174,7 +54191,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54198,7 +54215,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54222,7 +54239,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54246,7 +54263,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54270,7 +54287,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54294,7 +54311,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54318,7 +54335,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54342,7 +54359,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54366,7 +54383,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54390,7 +54407,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54414,7 +54431,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54438,7 +54455,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54462,7 +54479,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54486,7 +54503,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54510,7 +54527,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54534,7 +54551,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54558,7 +54575,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54582,7 +54599,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54606,7 +54623,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54630,7 +54647,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54654,7 +54671,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54678,7 +54695,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54702,7 +54719,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54726,7 +54743,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54750,7 +54767,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54774,7 +54791,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54798,7 +54815,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -54822,7 +54839,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -54846,7 +54863,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -54870,7 +54887,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -54894,7 +54911,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -54918,7 +54935,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -54942,7 +54959,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -54966,7 +54983,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -54990,7 +55007,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55014,7 +55031,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55038,7 +55055,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55062,7 +55079,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55086,7 +55103,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55110,7 +55127,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55134,7 +55151,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55158,7 +55175,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55182,7 +55199,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55206,7 +55223,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55230,7 +55247,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55254,7 +55271,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55278,7 +55295,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55302,7 +55319,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55326,7 +55343,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55350,7 +55367,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55374,7 +55391,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55398,7 +55415,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55422,7 +55439,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55446,7 +55463,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55470,7 +55487,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55494,7 +55511,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55518,7 +55535,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55542,7 +55559,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55566,7 +55583,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55590,7 +55607,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55614,7 +55631,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55638,7 +55655,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55662,7 +55679,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55686,7 +55703,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55710,7 +55727,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55734,7 +55751,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55758,7 +55775,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55782,7 +55799,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55797,7 +55814,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -55812,10 +55829,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A5:C6">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
